--- a/test_data/代理管理测试用例.xlsx
+++ b/test_data/代理管理测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12345"/>
+    <workbookView windowWidth="28245" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>f"SELECT `</t>
     </r>
     <r>
@@ -959,12 +965,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,9 +1049,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,24 +1117,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1098,21 +1157,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,35 +1179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1162,35 +1186,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1209,7 +1208,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,109 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,43 +1364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,65 +1399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1495,160 +1435,219 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1664,7 +1663,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1997,8 +1995,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -2008,7 +2006,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7"/>
@@ -2017,10 +2015,10 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7"/>
@@ -34789,7 +34787,7 @@
       <c r="XFD7" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -34812,8 +34810,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -34847,7 +34845,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -34862,7 +34860,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -34877,7 +34875,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -34892,7 +34890,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -34909,7 +34907,7 @@
       <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -34926,7 +34924,7 @@
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -34943,7 +34941,7 @@
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -34960,7 +34958,7 @@
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -34977,7 +34975,7 @@
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -34999,7 +34997,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -35088,7 +35086,7 @@
       <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -35100,7 +35098,7 @@
       <c r="K2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M2" s="7" t="s">

--- a/test_data/代理管理测试用例.xlsx
+++ b/test_data/代理管理测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>总台-代理管理</t>
   </si>
@@ -30,7 +30,7 @@
     <t>总代结账sql:</t>
   </si>
   <si>
-    <t>f"SELECT `账号/登入账号`,`代理线名称`,'总代' as '级别',`账号状态`,IFNULL(`昨日余额`,0) '昨日余额',IFNULL(`余额`,0) '余额',IFNULL(`昨日现金余额`,0) '昨日现金余额',IFNULL(`现金余额`,0) '现金余额',`未完成交易`,`信用额度`,`已用额度` FROM (SELECT CONCAT(a.account,'/',IFNULL(a.login_account,'')) as '账号/登入账号',a.`id`,a.`name` '代理线名称',(case when account_status=0 then '启用' when account_status=1 then '只能看账' when account_status=2 then '禁止登入' when account_status=3 then '停用' end) as '账号状态',(case when role_id=0 then '总代理' when role_id=1 then '一级代理' when role_id=2 then '二级代理' when role_id=3 then '三级代理' end) '等级',sum(if(`status`in(1,2) AND award_time is NULL,bet_amount,0)) '未完成交易',sum(if(`status`=2,efficient_amount,0)) '总有效金额',credits '信用额度',credits-available_quota '已用额度' FROM `m_account` a JOIN m_account_credits b ON a.id = b.account_id RIGHT JOIN o_account_order c ON a.id = c.proxy0_id WHERE a.role_id= 0 AND DATE_FORMAT(c.create_time,'%Y-%m-%d') BETWEEN '2020-01-01' AND '2025-01-01' {account_Str} {account_statusStr} GROUP BY CONCAT(a.account,'/',IFNULL(a.login_account,'')),a.`id`,a.`name`,account_status,role_id,credits,available_quota,a.create_time ORDER BY a.create_time DESC) a JOIN ( SELECT a.proxy0_id,`余额`,`昨日余额` FROM (SELECT proxy0_id,-sum(company_win_or_lose) '余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status = 0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) a JOIN (SELECT proxy0_id,sum(case when DATE_FORMAT( a.award_time, '%Y-%m-%d' ) &lt; DATE_FORMAT( DATE_ADD( NOW(), INTERVAL '-4' HOUR ), '%Y-%m-%d' )  then -company_win_or_lose end) '昨日余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status = 0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) b ON a.proxy0_id=b.proxy0_id ) b ON a.id=b.proxy0_id LEFT JOIN (SELECT a.proxy0_id,`现金余额`,`昨日现金余额` FROM (SELECT proxy0_id,sum(company_win_or_lose+level0_win_or_lose) '现金余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status_for_sub=0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) a JOIN (SELECT proxy0_id,sum(case when DATE_FORMAT( a.award_time, '%Y-%m-%d' ) &lt; DATE_FORMAT( DATE_ADD( NOW(), INTERVAL '-4' HOUR ), '%Y-%m-%d' ) then company_win_or_lose+level0_win_or_lose end) '昨日现金余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status_for_sub = 0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) b ON a.proxy0_id=b.proxy0_id) c ON a.id=c.proxy0_id"</t>
+    <t>f"SELECT `账号/登入账号`,`代理线名称`,`等级` as '级别',`账号状态`,IFNULL(`昨日余额`,0) '昨日余额',IFNULL(`余额`,0) '余额',IFNULL(`昨日现金余额`,0) '昨日现金余额',IFNULL(`现金余额`,0) '现金余额',`未完成交易`,`信用额度`,`已用额度` FROM (SELECT CONCAT(a.account,'/',IFNULL(a.login_account,'')) as '账号/登入账号',a.`id`,a.`name` '代理线名称',(case when account_status=0 then '启用' when account_status=1 then '只能看账' when account_status=2 then '停用' when account_status=3 then '禁止登入' end) as '账号状态',(case when role_id=0 then '登0' when role_id=1 then '登1' when role_id=2 then '登2' when role_id=3 then '登3' end) '等级',sum(if(`status`in(1,2) AND award_time is NULL,bet_amount,0)) '未完成交易',sum(if(`status`=2,efficient_amount,0)) '总有效金额',credits '信用额度',credits-available_quota '已用额度' FROM `m_account` a JOIN m_account_credits b ON a.id = b.account_id RIGHT JOIN o_account_order c ON a.id = c.proxy0_id WHERE a.role_id= 0 AND DATE_FORMAT(c.create_time,'%Y-%m-%d') BETWEEN '2020-01-01' AND '2025-01-01' {account_Str} {account_statusStr} GROUP BY CONCAT(a.account,'/',IFNULL(a.login_account,'')),a.`id`,a.`name`,account_status,role_id,credits,available_quota,a.create_time ORDER BY a.create_time DESC) a JOIN ( SELECT a.proxy0_id,`余额`,`昨日余额` FROM (SELECT proxy0_id,-sum(company_win_or_lose) '余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status = 0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) a JOIN (SELECT proxy0_id,sum(case when DATE_FORMAT( a.award_time, '%Y-%m-%d' ) &lt; DATE_FORMAT( DATE_ADD( NOW(), INTERVAL '-4' HOUR ), '%Y-%m-%d' )  then -company_win_or_lose end) '昨日余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status = 0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) b ON a.proxy0_id=b.proxy0_id ) b ON a.id=b.proxy0_id LEFT JOIN (SELECT a.proxy0_id,`现金余额`,`昨日现金余额` FROM (SELECT proxy0_id,sum(company_win_or_lose+level0_win_or_lose) '现金余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status_for_sub=0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) a JOIN (SELECT proxy0_id,sum(case when DATE_FORMAT( a.award_time, '%Y-%m-%d' ) &lt; DATE_FORMAT( DATE_ADD( NOW(), INTERVAL '-4' HOUR ), '%Y-%m-%d' ) then company_win_or_lose+level0_win_or_lose end) '昨日现金余额' FROM o_account_order a JOIN m_account_unsettlement_amount_record b ON a.order_no = b.order_no WHERE b.payment_status_for_sub = 0 AND a.status=2 AND a.award_time is not null AND a.proxy0_id=b.account_id GROUP BY proxy0_id) b ON a.proxy0_id=b.proxy0_id) c ON a.id=c.proxy0_id"</t>
   </si>
   <si>
     <t>accountStatus</t>
@@ -48,22 +48,28 @@
     <t>account_Str</t>
   </si>
   <si>
+    <t>isExecution</t>
+  </si>
+  <si>
+    <t>根据"全部"查询所有总代账号</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
     <t>默认根据"启用"状态查询所有总代账号</t>
   </si>
   <si>
     <t>AND account_status=0</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>根据"停用"状态查询所有总代账号</t>
+    <t>根据"只能看账"状态查询所有总代账号</t>
   </si>
   <si>
     <t>AND account_status=1</t>
   </si>
   <si>
-    <t>根据"只能看账"状态查询所有总代账号</t>
+    <t>根据"停用"状态查询所有总代账号</t>
   </si>
   <si>
     <t>AND account_status=2</t>
@@ -85,6 +91,9 @@
   </si>
   <si>
     <t>sh</t>
+  </si>
+  <si>
+    <t>根据总代账号"sh"查询总代账号</t>
   </si>
   <si>
     <t>AND a.account='sh'</t>
@@ -238,7 +247,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>`,'</t>
+      <t>`,`</t>
     </r>
     <r>
       <rPr>
@@ -247,7 +256,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总代</t>
+      <t>等级</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +265,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>' as '</t>
+      <t>` as '</t>
     </r>
     <r>
       <rPr>
@@ -589,7 +598,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>禁止登入</t>
+      <t>停用</t>
     </r>
     <r>
       <rPr>
@@ -607,7 +616,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>停用</t>
+      <t>禁止登入</t>
     </r>
     <r>
       <rPr>
@@ -643,7 +652,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>总代理</t>
+      <t>登</t>
     </r>
     <r>
       <rPr>
@@ -652,7 +661,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>' when role_id=1 then '</t>
+      <t>0' when role_id=1 then '</t>
     </r>
     <r>
       <rPr>
@@ -661,7 +670,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一级代理</t>
+      <t>登</t>
     </r>
     <r>
       <rPr>
@@ -670,7 +679,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>' when role_id=2 then '</t>
+      <t>1' when role_id=2 then '</t>
     </r>
     <r>
       <rPr>
@@ -679,7 +688,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>二级代理</t>
+      <t>登</t>
     </r>
     <r>
       <rPr>
@@ -688,7 +697,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>' when role_id=3 then '</t>
+      <t>2' when role_id=3 then '</t>
     </r>
     <r>
       <rPr>
@@ -697,7 +706,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>三级代理</t>
+      <t>登</t>
     </r>
     <r>
       <rPr>
@@ -706,7 +715,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>' end) '</t>
+      <t>3' end) '</t>
     </r>
     <r>
       <rPr>
@@ -947,14 +956,14 @@
     <t>['account','name','orderNo','bettingTime','sportsType','betType','betAmount','betResult','level0Percentage','companyPercentage']</t>
   </si>
   <si>
-    <t>[['jn/jn', 'JN总代', '总代', '启用', 27.52, -559.71, -59.27, 1205.54, 500, 100000000, 20000000], ['jm/jm', 'JM总代', '总代', '启用', -53.4, -54, 92.29, 93.42, 0, 100000000, 20000000], ['jl/jl', 'JL总代', '总代', '启用', 9.6, -31.59, -15.9, 54.87, 100, 100000000, 20000000], ['jk/jk', 'JK总代', '总代', '启用', -44.4, -44.4, 76.65, 76.65, 0, 100000000, 20000000], ['jj/jj', 'JJ总代', '总代', '启用', 26.94, 17.57, -45.2, -29.06, 0, 100000000, 20000000], ['ji/ji', 'JI总代', '总代', '启用', -100.76, -130.44, 173.4, 224.28, 0, 100000000, 20000000], ['jh/jh', 'JH总代', '总代', '启用', -66.05, -66.05, 113.87, 113.87, 0, 100000000, 20000000], ['jg/jg', 'JG总代', '总代', '启用', -96.84, -96.84, 166.43, 166.43, 0, 100000000, 20000000], ['jf/jf', 'JF总代', '总代', '启用', 25.23, -2.23, -42.69, 4.49, 0, 100000000, 20000000], ['jd/jd', 'JD总代', '总代', '启用', 6.39, -8.94, -10.57, 15.86, 0, 100000000, 20000000], ['jc/jc', 'JC总代', '总代', '启用', -10.87, -10.87, 19.12, 19.12, 100, 100000000, 20000000], ['jb/jb', 'JB总代', '总代', '启用', 14.78, 14.78, -25.09, -25.09, 100, 100000000, 20000000], ['ja/ja', 'JA总代', '总代', '启用', -11.38, -220.68, 19.76, 379.1, 100, 100000000, 20000000], ['jo/jo', 'Jo总代', '总代', '启用', 12.54, 12.54, -47.8, -47.8, 100, 100000000, 20000000], ['je/jerry000', '杰瑞总代', '总代', '启用', -50.16, -50.16, 100.52, 100.52, 300, 100000000, 30001000], ['a0/y0', '李扬总代', '总代', '启用', -1459.93, -1356.18, 2920.17, 2712.73, 12125, 1000000000, 50000000], ['t0/t0', 'aw总代', '总代', '启用', -374.77, -393.28, 518.01, 551.02, 100, 5000000, 2000000], ['d0/d0', '杜鑫总代', '总代', '启用', 928.38, 926.38, -1856.59, -1852.59, 90, 100000000, 42000000], ['sh/sh', '海总代', '总代', '启用', -1210.38, -1859.92, 1508.8, 2958.86, 85, 900000000, 100000000]]</t>
+    <t>['jq/jq', 'JQ总代', '登0', '启用', -495.26, -495.26, 876.25, 876.25, 1710.0, 100000000.0, 20000000.0]</t>
   </si>
   <si>
-    <t>[('jn/jn', 'JN总代', '总代', '启用', Decimal('27.52'), Decimal('-559.71'), Decimal('-59.27'), Decimal('1205.54'), Decimal('500.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jm/jm', 'JM总代', '总代', '启用', Decimal('-53.40'), Decimal('-54.00'), Decimal('92.29'), Decimal('93.42'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jl/jl', 'JL总代', '总代', '启用', Decimal('9.60'), Decimal('-31.59'), Decimal('-15.90'), Decimal('54.87'), Decimal('100.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jk/jk', 'JK总代', '总代', '启用', Decimal('-44.40'), Decimal('-44.40'), Decimal('76.65'), Decimal('76.65'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jj/jj', 'JJ总代', '总代', '启用', Decimal('26.94'), Decimal('17.57'), Decimal('-45.20'), Decimal('-29.06'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('ji/ji', 'JI总代', '总代', '启用', Decimal('-100.76'), Decimal('-130.44'), Decimal('173.40'), Decimal('224.28'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jh/jh', 'JH总代', '总代', '启用', Decimal('-66.05'), Decimal('-66.05'), Decimal('113.87'), Decimal('113.87'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jg/jg', 'JG总代', '总代', '启用', Decimal('-96.84'), Decimal('-96.84'), Decimal('166.43'), Decimal('166.43'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jf/jf', 'JF总代', '总代', '启用', Decimal('25.23'), Decimal('-2.23'), Decimal('-42.69'), Decimal('4.49'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jd/jd', 'JD总代', '总代', '启用', Decimal('6.39'), Decimal('-8.94'), Decimal('-10.57'), Decimal('15.86'), Decimal('0.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jc/jc', 'JC总代', '总代', '启用', Decimal('-10.87'), Decimal('-10.87'), Decimal('19.12'), Decimal('19.12'), Decimal('100.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jb/jb', 'JB总代', '总代', '启用', Decimal('14.78'), Decimal('14.78'), Decimal('-25.09'), Decimal('-25.09'), Decimal('100.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('ja/ja', 'JA总代', '总代', '启用', Decimal('-11.38'), Decimal('-220.68'), Decimal('19.76'), Decimal('379.10'), Decimal('100.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('jo/jo', 'Jo总代', '总代', '启用', Decimal('12.54'), Decimal('12.54'), Decimal('-47.80'), Decimal('-47.80'), Decimal('100.00'), Decimal('100000000.00'), Decimal('20000000.00')), ('je/jerry000', '杰瑞总代', '总代', '启用', Decimal('-50.16'), Decimal('-50.16'), Decimal('100.52'), Decimal('100.52'), Decimal('300.00'), Decimal('100000000.00'), Decimal('30001000.00')), ('a0/y0', '李扬总代', '总代', '启用', Decimal('-1459.93'), Decimal('-1356.18'), Decimal('2920.17'), Decimal('2712.73'), Decimal('12125.00'), Decimal('1000000000.00'), Decimal('50000000.00')), ('t0/t0', 'aw总代', '总代', '启用', Decimal('-374.77'), Decimal('-393.28'), Decimal('518.01'), Decimal('551.02'), Decimal('100.00'), Decimal('5000000.00'), Decimal('2000000.00')), ('d0/d0', '杜鑫总代', '总代', '启用', Decimal('928.38'), Decimal('926.38'), Decimal('-1856.59'), Decimal('-1852.59'), Decimal('90.00'), Decimal('100000000.00'), Decimal('42000000.00')), ('sh/sh', '海总代', '总代', '启用', Decimal('-1210.38'), Decimal('-1859.92'), Decimal('1508.80'), Decimal('2958.86'), Decimal('85.00'), Decimal('900000000.00'), Decimal('100000000.00'))]</t>
+    <t>['jq/jq', 'JQ总代', '总代', '启用', -495.26, -495.26, 876.25, 876.25, 1710.0, 100000000.0, 20000000.0]</t>
   </si>
   <si>
-    <t>测试通过 
-2022-06-23 10:46:49</t>
+    <t>测试不通过 
+2022-07-12 17:15:20</t>
   </si>
   <si>
     <t>是</t>
@@ -965,10 +974,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1057,7 +1066,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,17 +1080,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1101,13 +1102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1120,6 +1114,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1149,22 +1151,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1174,6 +1160,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,13 +1217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,55 +1235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,13 +1253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,19 +1271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,25 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1307,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,8 +1444,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,7 +1454,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,8 +1492,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,31 +1508,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,28 +1529,34 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1550,100 +1565,94 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1996,7 +2005,7 @@
   <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -34808,13 +34817,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.125" style="3" customWidth="1"/>
@@ -34823,7 +34832,7 @@
     <col min="5" max="5" width="18.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -34839,28 +34848,32 @@
       <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
+    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="7">
+      <c r="F2" s="3" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -34869,10 +34882,13 @@
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="11" t="s">
@@ -34884,10 +34900,13 @@
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="11" t="s">
@@ -34899,42 +34918,49 @@
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="7" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="7">
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="8" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A8" s="7">
         <v>0</v>
       </c>
@@ -34945,13 +34971,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="9" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A9" s="7">
         <v>0</v>
       </c>
@@ -34962,13 +34991,16 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="10" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
       <c r="A10" s="7">
         <v>0</v>
       </c>
@@ -34979,10 +35011,33 @@
         <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A11" s="7">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -34997,7 +35052,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -35017,49 +35072,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -35069,40 +35124,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
